--- a/biology/Médecine/District_hospitalier_d'Helsinki_et_de_l'Uusimaa/District_hospitalier_d'Helsinki_et_de_l'Uusimaa.xlsx
+++ b/biology/Médecine/District_hospitalier_d'Helsinki_et_de_l'Uusimaa/District_hospitalier_d'Helsinki_et_de_l'Uusimaa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>District_hospitalier_d%27Helsinki_et_de_l%27Uusimaa</t>
+          <t>District_hospitalier_d'Helsinki_et_de_l'Uusimaa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le District hospitalier d'Helsinki et de l'Uusimaa finnois : Helsingin ja Uudenmaan sairaanhoitopiiri, sigle HUS)[2] est le plus grand district hospitalier de Finlande[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le District hospitalier d'Helsinki et de l'Uusimaa finnois : Helsingin ja Uudenmaan sairaanhoitopiiri, sigle HUS) est le plus grand district hospitalier de Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>District_hospitalier_d%27Helsinki_et_de_l%27Uusimaa</t>
+          <t>District_hospitalier_d'Helsinki_et_de_l'Uusimaa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'este plus grand district hospitalier de Finlande et le deuxième employeur. 
-Le district hospitalier HUS compte 24 municipalités membres et une population de près de 1,7 million et 2,2 millions dans sa zone de responsabilité spéciale[4],[5].
+Le district hospitalier HUS compte 24 municipalités membres et une population de près de 1,7 million et 2,2 millions dans sa zone de responsabilité spéciale,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>District_hospitalier_d%27Helsinki_et_de_l%27Uusimaa</t>
+          <t>District_hospitalier_d'Helsinki_et_de_l'Uusimaa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Chiffres clés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chiffres clés du district:
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>District_hospitalier_d%27Helsinki_et_de_l%27Uusimaa</t>
+          <t>District_hospitalier_d'Helsinki_et_de_l'Uusimaa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Municipalités membres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">HUS est la propriété de municipalités de l'Uusimaa hormis Pukkila et Myrskylä, qui sont membres du regroupement de la fédération municipale de bien-être du Päijät-Häme.
 La liste des municipalités membres est:
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>District_hospitalier_d%27Helsinki_et_de_l%27Uusimaa</t>
+          <t>District_hospitalier_d'Helsinki_et_de_l'Uusimaa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,9 +648,11 @@
           <t>Hôpitaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les établissements hospitaliers du district sont[3]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les établissements hospitaliers du district sont:
 </t>
         </is>
       </c>
@@ -643,7 +663,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>District_hospitalier_d%27Helsinki_et_de_l%27Uusimaa</t>
+          <t>District_hospitalier_d'Helsinki_et_de_l'Uusimaa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -661,9 +681,11 @@
           <t>Soins préhospitaliers d'urgence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les sept régions de services préhospitaliers d'urgence du district sont[8]:
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les sept régions de services préhospitaliers d'urgence du district sont:
 HUCH Helsinki (Helsinki)
 HUCH Jorvi (Espoo, Kirkkonummi et Kauniainen)
 HUCH Peijas (Vantaa et Kerava)
